--- a/data/income_statement/3digits/total/467_IS_TOTAL.xlsx
+++ b/data/income_statement/3digits/total/467_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>467-Other specialised wholesale</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>467-Other specialised wholesale</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,404 +841,459 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>167100531.2462</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>200978218.64759</v>
+        <v>217217186.70961</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>303122270.62746</v>
+        <v>303169714.49</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>358406885.85331</v>
+        <v>359660312.0727401</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>389605553.08345</v>
+        <v>390674811.7368101</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>458688152.70847</v>
+        <v>459892187.12624</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>471992226.16831</v>
+        <v>486802605.16821</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>521262022.6190799</v>
+        <v>523092688.11526</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>736102852.5308001</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>937340498.9848601</v>
+        <v>941322669.50502</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>1019096329.73747</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>1043617146.97483</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1195160603.916</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>141305547.6816</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>170976245.23794</v>
+        <v>185422029.2371</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>254950446.73262</v>
+        <v>254994241.46668</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>300028263.21711</v>
+        <v>300217921.3306901</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>332511394.59315</v>
+        <v>333481760.0159701</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>387885888.12215</v>
+        <v>388964592.66016</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>402691536.56114</v>
+        <v>414939727.86856</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>451373954.4782</v>
+        <v>453009733.38626</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>624796614.1053901</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>779639372.27145</v>
+        <v>783478773.42268</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>835298790.73842</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>858835033.03701</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>1012343693.562</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>24403288.18548</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>28276138.85137</v>
+        <v>30049903.95815</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>45693825.17033</v>
+        <v>45697041.82824001</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>55831906.47704</v>
+        <v>56887625.642</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>54168554.92242999</v>
+        <v>54196718.77554001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>67564434.58675</v>
+        <v>67586345.44253999</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>65248964.44073999</v>
+        <v>67627083.12536001</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>65230144.46238001</v>
+        <v>65419033.24185</v>
       </c>
       <c r="K7" s="48" t="n">
         <v>105308238.66061</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>149111998.12113</v>
+        <v>149250827.65991</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>174970845.25373</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>175819896.31848</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>172989372.482</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>1391695.37912</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>1725834.55828</v>
+        <v>1745253.51436</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>2477998.72451</v>
+        <v>2478431.19508</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>2546716.15916</v>
+        <v>2554765.10005</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>2925603.56787</v>
+        <v>2996332.9453</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>3237829.99957</v>
+        <v>3341249.02354</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>4051725.16643</v>
+        <v>4235794.17429</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>4657923.6785</v>
+        <v>4663921.487149999</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>5997999.764800001</v>
+        <v>5997999.7648</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>8589128.59228</v>
+        <v>8593068.422430001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>8826693.74532</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>8962217.619340001</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>9827537.872</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>3863477.57936</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>4405855.097450001</v>
+        <v>4860548.427010001</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>6314603.795359999</v>
+        <v>6314637.407950001</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>6986150.337909999</v>
+        <v>6997615.59932</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>8594277.249919999</v>
+        <v>8612219.858969999</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>9835902.932670001</v>
+        <v>9848702.979700001</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>10956511.35324</v>
+        <v>11079591.2354</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>14008968.86776</v>
+        <v>14109971.00265</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>29782329.36636</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>18687085.35935</v>
+        <v>18694179.31997</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>25062027.44677</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>25220782.43397</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>28904106.965</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>652534.7024399999</v>
+        <v>652534.70244</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>679586.8803899999</v>
+        <v>679949.5748000001</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>963113.5484600001</v>
+        <v>963130.4574300001</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1072299.30588</v>
+        <v>1076718.72662</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1260104.80114</v>
+        <v>1266161.07706</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>2516194.69672</v>
+        <v>2525395.12677</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>1951682.30361</v>
+        <v>1983262.53235</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>4806948.626460001</v>
+        <v>4822307.765550001</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>17974209.59609</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>4892479.12103</v>
+        <v>4897580.14437</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>7932989.1125</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>8065001.986130001</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>11430905.233</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>2827514.79367</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>3387321.66494</v>
+        <v>3637347.780369999</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>4666153.09987</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>5260805.98489</v>
+        <v>5267418.024620001</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>6559012.64718</v>
+        <v>6570695.17241</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>6414044.231269999</v>
+        <v>6417254.53085</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>7652082.65879</v>
+        <v>7718554.07982</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>8003232.039969999</v>
+        <v>8087920.999580001</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>10162968.23432</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>11398534.27669</v>
+        <v>11400316.60168</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>14265725.74667</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>14280231.67197</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>14505577.57</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>383428.08325</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>338946.5521199999</v>
+        <v>543251.07184</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>685337.14703</v>
+        <v>685353.8506499999</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>653045.04714</v>
+        <v>653478.8480799999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>775159.8016</v>
+        <v>775363.6095</v>
       </c>
       <c r="H12" s="48" t="n">
-        <v>905664.00468</v>
+        <v>906053.32208</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>1352746.39084</v>
+        <v>1377774.62323</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>1198788.20133</v>
+        <v>1199742.23752</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>1645151.53595</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>2396071.96163</v>
+        <v>2396282.57392</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>2863312.587599999</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>2875548.77587</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>2967624.162</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>163237053.66684</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>196572363.55014</v>
+        <v>212356638.2826</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>296807666.8321</v>
+        <v>296855077.08205</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>351420735.5154</v>
+        <v>352662696.47342</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>381011275.8335299</v>
+        <v>382062591.87784</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>448852249.7757999</v>
+        <v>450043484.14654</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>461035714.81507</v>
+        <v>475723013.93281</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>507253053.75132</v>
+        <v>508982717.11261</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>706320523.16444</v>
+        <v>706320523.1644399</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>918653413.6255099</v>
+        <v>922628490.1850499</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>994034302.2907</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>1018396364.54086</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1166256496.951</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>149974697.21854</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>182001001.94712</v>
+        <v>196844396.0224</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>277209218.51317</v>
+        <v>277251834.08422</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>330401333.22654</v>
+        <v>331616912.55289</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>355782620.67932</v>
+        <v>356732353.33564</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>420336086.42248</v>
+        <v>421347167.77564</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>429541190.1323299</v>
+        <v>443619133.62464</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>469491341.47941</v>
+        <v>470933344.16041</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>658109449.52806</v>
+        <v>658109449.5280601</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>859236413.12444</v>
+        <v>863151351.3927901</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>934059520.05142</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>957870489.7214501</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>1093901140.014</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>12048857.31808</v>
@@ -1349,73 +1305,83 @@
         <v>20516393.84033</v>
       </c>
       <c r="F15" s="48" t="n">
-        <v>32016546.30228</v>
+        <v>32023167.35139</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>24467711.76638</v>
+        <v>24501077.67268</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>26265942.86100001</v>
+        <v>26293693.85205</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>27180454.85283</v>
+        <v>27348895.25826</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>29841975.19429</v>
+        <v>29958496.94693999</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>49520024.48494</v>
+        <v>49520024.48493999</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>45487998.11945</v>
+        <v>45531370.65842</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>45332477.16508</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>46566511.04064</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>59428600.556</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>136093651.47569</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>163453675.90649</v>
+        <v>178297069.98177</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>252500999.59983</v>
+        <v>252543379.18796</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>294115878.8016</v>
+        <v>294272514.66595</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>326560409.21971</v>
+        <v>327451753.96662</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>389060524.53193</v>
+        <v>390012051.66013</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>397237640.24361</v>
+        <v>411001349.91256</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>433484493.37887</v>
+        <v>434793195.54424</v>
       </c>
       <c r="K16" s="48" t="n">
         <v>598944728.41099</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>804033122.58636</v>
+        <v>807868411.42819</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>875953973.3077599</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>898462614.53778</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>1001769506.514</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
         <v>1642443.18183</v>
@@ -1424,37 +1390,42 @@
         <v>2169232.43624</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>3583811.23083</v>
+        <v>3584047.21375</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>3916405.26009</v>
+        <v>4968100.2541</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>4259490.85716</v>
+        <v>4280531.5833</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>4521987.23045</v>
+        <v>4550865.43013</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>4553176.71135</v>
+        <v>4665957.04424</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>5624029.573489999</v>
+        <v>5640510.22922</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>8292850.71232</v>
+        <v>8292850.712320001</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>8646143.88648</v>
+        <v>8680699.71157</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>11362333.8183</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>11425414.86749</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>30918636.193</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>189745.24294</v>
@@ -1466,112 +1437,127 @@
         <v>608013.84218</v>
       </c>
       <c r="F18" s="48" t="n">
-        <v>352502.86257</v>
+        <v>353130.2814500001</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>495008.8360700001</v>
+        <v>498990.11304</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>487631.7991</v>
+        <v>490556.83333</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>569918.3245399999</v>
+        <v>602931.4095800001</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>540843.33276</v>
+        <v>541141.44001</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>1351845.91981</v>
       </c>
       <c r="L18" s="48" t="n">
-        <v>1069148.53215</v>
+        <v>1070869.59461</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>1410735.76028</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>1415949.27554</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>1784396.751</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>13262356.4483</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>14571361.60302</v>
+        <v>15512242.2602</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>19598448.31893</v>
+        <v>19603242.99783</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>21019402.28886</v>
+        <v>21045783.92053</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>25228655.15421</v>
+        <v>25330238.5422</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>28516163.35332</v>
+        <v>28696316.3709</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>31494524.68274</v>
+        <v>32103880.30817</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>37761712.27191</v>
+        <v>38049372.9522</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>48211073.63637999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>59417000.50107</v>
+        <v>59477138.79225999</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>59974782.23928</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>60525874.81941</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>72355356.93700001</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>9155671.699450001</v>
+        <v>9155686.062930001</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>10271740.87144</v>
+        <v>10711551.25828</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>13036263.64625</v>
+        <v>13039554.15348</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>14722787.58031</v>
+        <v>14741937.03421</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>17148365.26773</v>
+        <v>17253468.37653</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>20081880.95786</v>
+        <v>20199475.7682</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>21881354.27979</v>
+        <v>22388681.08233</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>24196833.25993</v>
+        <v>24423214.0529</v>
       </c>
       <c r="K20" s="47" t="n">
         <v>28547100.04018</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>34171847.29256</v>
+        <v>34281125.03629</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>38825042.31214999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>39217332.39585</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>43683906.474</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
         <v>20451.55439</v>
@@ -1589,229 +1575,259 @@
         <v>39014.52496</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>22627.22014</v>
+        <v>22960.6338</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>28978.97507</v>
+        <v>29648.70851</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>32270.63333</v>
+        <v>32788.14934</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>26737.68833</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>33553.94493</v>
+        <v>33652.81669</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>37096.68843</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>37334.70854</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>48433.66</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>4380160.50937</v>
+        <v>4380160.509370001</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>4897569.06375</v>
+        <v>5271353.136729999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>6627928.11777</v>
+        <v>6630522.73559</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>7383197.46336</v>
+        <v>7389409.426039999</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>8769811.317629999</v>
+        <v>8812482.718869999</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>10212108.38757</v>
+        <v>10263037.4309</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>11299458.95939</v>
+        <v>11572621.36161</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>11995814.84426</v>
+        <v>12122768.87648</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>14817244.60816</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>17729310.84339</v>
+        <v>17744774.67444</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>20239202.37592</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>20393650.38409</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>22240008.429</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>4755059.635690001</v>
+        <v>4755073.99917</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>5351161.03318</v>
+        <v>5417187.34704</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>6380045.40087</v>
+        <v>6380741.29028</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>7314720.58414</v>
+        <v>7327658.075359999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>8339539.42514</v>
+        <v>8401971.1327</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>9847145.35015</v>
+        <v>9913477.703500001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>10552916.34533</v>
+        <v>10786411.01221</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>12168747.78234</v>
+        <v>12267657.02708</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>13703117.74369</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>16408982.50424</v>
+        <v>16502697.54516</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>18548743.2478</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>18786347.30322</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>21395464.385</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>4106684.74885</v>
+        <v>4106670.38537</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>4299620.73158</v>
+        <v>4800691.00192</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>6562184.67268</v>
+        <v>6563688.844350001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>6296614.708550001</v>
+        <v>6303846.88632</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>8080289.88648</v>
+        <v>8076770.16567</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>8434282.39546</v>
+        <v>8496840.602700001</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>9613170.402949998</v>
+        <v>9715199.22584</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>13564879.01198</v>
+        <v>13626158.8993</v>
       </c>
       <c r="K24" s="47" t="n">
         <v>19663973.5962</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>25245153.20851</v>
+        <v>25196013.75597</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>21149739.92713</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>21308542.42356</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>28671450.463</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>6901636.977549999</v>
+        <v>6901636.97755</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>5281642.28992</v>
+        <v>7096971.27359</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>9817423.305509999</v>
+        <v>9817667.71785</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>8981605.169600001</v>
+        <v>8984461.915520001</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>13545007.83958</v>
+        <v>13559393.37704</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>16186641.10278</v>
+        <v>16241024.49129</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>22472482.51571</v>
+        <v>23247769.75058</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>28848292.17732</v>
+        <v>28954407.33742</v>
       </c>
       <c r="K25" s="47" t="n">
         <v>27553011.67575</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>72025600.95789999</v>
+        <v>72299578.77302</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>45312009.80729</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>45538326.57560001</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>83238751.396</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
-        <v>382723.2978599999</v>
+        <v>382723.29786</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>380464.9718599999</v>
+        <v>380464.97186</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>438852.0660999999</v>
+        <v>438852.0661</v>
       </c>
       <c r="F26" s="48" t="n">
         <v>346151.74704</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>422861.6909700001</v>
+        <v>422885.13812</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>456004.96222</v>
+        <v>470681.26148</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>426801.43317</v>
+        <v>439179.94965</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>732361.13523</v>
+        <v>738811.89165</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>1679345.71777</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>1218887.88378</v>
+        <v>1219542.51815</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>1140946.33553</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>1156652.607</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>601684.09</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>389142.68788</v>
       </c>
       <c r="D27" s="48" t="n">
-        <v>282066.68367</v>
+        <v>288478.8519</v>
       </c>
       <c r="E27" s="48" t="n">
         <v>339749.17298</v>
@@ -1823,73 +1839,83 @@
         <v>525218.7105</v>
       </c>
       <c r="H27" s="48" t="n">
-        <v>601169.73375</v>
+        <v>601169.7337499999</v>
       </c>
       <c r="I27" s="48" t="n">
-        <v>352690.0803099999</v>
+        <v>356488.73462</v>
       </c>
       <c r="J27" s="48" t="n">
-        <v>851175.21487</v>
+        <v>852096.44898</v>
       </c>
       <c r="K27" s="48" t="n">
-        <v>452718.8015100001</v>
+        <v>452718.8015099999</v>
       </c>
       <c r="L27" s="48" t="n">
-        <v>377860.1560200001</v>
+        <v>389256.48043</v>
       </c>
       <c r="M27" s="48" t="n">
-        <v>629896.4024</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13">
+        <v>632577.4756900002</v>
+      </c>
+      <c r="N27" s="48" t="n">
+        <v>194210.925</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>331720.77452</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>305823.6010200001</v>
+        <v>341680.13056</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>418188.81876</v>
+        <v>418229.67003</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>523505.28764</v>
+        <v>523596.5298</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>597117.36925</v>
+        <v>597873.6476700001</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>734793.53042</v>
+        <v>736761.7188799998</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>765486.8809399999</v>
+        <v>796967.1035799999</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>800038.5326200001</v>
+        <v>838818.14292</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>1191336.6601</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>2066980.86219</v>
+        <v>2075321.17907</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>2351463.86465</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>2408512.83651</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>2236653.02</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>326002.45086</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>175187.68836</v>
+        <v>176090.17154</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>244755.93399</v>
@@ -1901,145 +1927,165 @@
         <v>280986.45253</v>
       </c>
       <c r="H29" s="48" t="n">
-        <v>270643.42795</v>
+        <v>270649.9249</v>
       </c>
       <c r="I29" s="48" t="n">
-        <v>289526.59084</v>
+        <v>290032.08994</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>331622.63494</v>
+        <v>333656.69907</v>
       </c>
       <c r="K29" s="48" t="n">
         <v>374027.86412</v>
       </c>
       <c r="L29" s="48" t="n">
-        <v>501934.06162</v>
+        <v>502165.02687</v>
       </c>
       <c r="M29" s="48" t="n">
-        <v>559178.10247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:13">
+        <v>562915.72244</v>
+      </c>
+      <c r="N29" s="48" t="n">
+        <v>608084.498</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
         <v>197318.65062</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>174789.00528</v>
+        <v>177158.84442</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>183368.87478</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>185623.71972</v>
+        <v>187033.14007</v>
       </c>
       <c r="G30" s="48" t="n">
-        <v>199067.77121</v>
+        <v>199645.98214</v>
       </c>
       <c r="H30" s="48" t="n">
-        <v>115661.10828</v>
+        <v>116579.50138</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>215796.31277</v>
+        <v>219265.85032</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>157702.07059</v>
+        <v>158839.16564</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>209228.82127</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>534364.95198</v>
+        <v>536596.6982400001</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>454656.49047</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>458679.1761800001</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>657792.3370000001</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>57754.05872</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>352795.8692299999</v>
+        <v>352800.12593</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>271354.20653</v>
       </c>
       <c r="F31" s="48" t="n">
-        <v>118918.94255</v>
+        <v>119166.02959</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>218433.57783</v>
+        <v>218449.80492</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>494169.95135</v>
+        <v>494178.48771</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>131698.41413</v>
+        <v>134674.79679</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>126947.45213</v>
+        <v>127313.30446</v>
       </c>
       <c r="K31" s="48" t="n">
         <v>194578.27914</v>
       </c>
       <c r="L31" s="48" t="n">
-        <v>514973.42898</v>
+        <v>515417.79717</v>
       </c>
       <c r="M31" s="48" t="n">
-        <v>266047.40751</v>
-      </c>
-    </row>
-    <row r="32" spans="1:13">
+        <v>267667.69753</v>
+      </c>
+      <c r="N31" s="48" t="n">
+        <v>369983.33</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>3325348.54305</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>2484110.9119</v>
+        <v>3085770.80767</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>4825129.02662</v>
+        <v>4825328.76062</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>3587959.77636</v>
+        <v>3588248.23697</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>6207155.92474</v>
+        <v>6219139.07847</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>8261252.58622</v>
+        <v>8287397.201540001</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>14336439.22482</v>
+        <v>15011391.5065</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>20022279.0123</v>
+        <v>20060102.31492</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>16568615.42158</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>57342958.01555</v>
+        <v>57569475.66881999</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>29478975.12747</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>29607736.98013</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>68755702.649</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>35507.66886</v>
@@ -2057,31 +2103,36 @@
         <v>152065.42556</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>238276.85336</v>
+        <v>242860.81561</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>255236.94852</v>
+        <v>261011.10674</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>318983.2871199999</v>
+        <v>319704.42013</v>
       </c>
       <c r="K33" s="48" t="n">
-        <v>236780.7439600001</v>
+        <v>236780.74396</v>
       </c>
       <c r="L33" s="48" t="n">
         <v>430458.62366</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>588300.88634</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>588597.0732299999</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>307594.718</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
-        <v>20839.58417999999</v>
+        <v>20839.58418</v>
       </c>
       <c r="D34" s="48" t="n">
         <v>22841.30133</v>
@@ -2090,190 +2141,215 @@
         <v>23953.86026</v>
       </c>
       <c r="F34" s="48" t="n">
-        <v>4186.22223</v>
+        <v>4186.222229999999</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>3017.38428</v>
+        <v>3374.17964</v>
       </c>
       <c r="H34" s="48" t="n">
-        <v>3421.50824</v>
+        <v>4022.19113</v>
       </c>
       <c r="I34" s="48" t="n">
-        <v>5975.224069999999</v>
+        <v>6203.03498</v>
       </c>
       <c r="J34" s="48" t="n">
-        <v>14719.4135</v>
+        <v>14797.08818</v>
       </c>
       <c r="K34" s="48" t="n">
         <v>31143.1844</v>
       </c>
       <c r="L34" s="48" t="n">
-        <v>119777.5923</v>
+        <v>122328.26697</v>
       </c>
       <c r="M34" s="48" t="n">
-        <v>129457.59879</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13">
+        <v>129871.86313</v>
+      </c>
+      <c r="N34" s="48" t="n">
+        <v>141524.197</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>1835279.261</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>1075678.98542</v>
+        <v>2243802.79653</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>3051424.15319</v>
+        <v>3051427.98026</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3484416.66986</v>
+        <v>3485237.20562</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>4939083.53271</v>
+        <v>4939754.95749</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>5011247.44099</v>
+        <v>5016723.65491</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>5692831.40614</v>
+        <v>5732555.57746</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>5492463.42402</v>
+        <v>5510267.86147</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>6615236.181899999</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>8917405.381819999</v>
+        <v>8939016.51364</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>9713087.59166</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>9725115.143759999</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>9365521.631999999</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>5263924.76354</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>3436377.193329999</v>
+        <v>5316534.44797</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>9432682.10983</v>
+        <v>9432715.376660001</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>6508372.06744</v>
+        <v>6509497.070950001</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>12218982.3901</v>
+        <v>12230537.07871</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>13613053.02476</v>
+        <v>13667973.71734</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>20920435.32989</v>
+        <v>21723398.09306</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>26986621.64088</v>
+        <v>27029604.71753</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>24078301.36816</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>70849099.30847</v>
+        <v>71083645.77176</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>40304143.50313</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>40449919.95541</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>80059441.289</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>34717.00006999999</v>
+        <v>34717.00007</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>34992.77555</v>
+        <v>36786.80476</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>45519.74695</v>
+        <v>45519.88093</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>58419.24348</v>
+        <v>58421.50158</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>80567.03087</v>
+        <v>80823.37525</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>113737.68183</v>
+        <v>113795.4619</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>129575.17198</v>
+        <v>131219.75629</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>150168.26695</v>
+        <v>150387.2286</v>
       </c>
       <c r="K37" s="48" t="n">
         <v>185382.02099</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>264854.04438</v>
+        <v>264882.52724</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>315300.04368</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>315673.53704</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>376836.417</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>393014.02189</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>275682.10969</v>
+        <v>286702.37807</v>
       </c>
       <c r="E38" s="48" t="n">
         <v>294236.27715</v>
       </c>
       <c r="F38" s="48" t="n">
-        <v>458468.32791</v>
+        <v>459254.58708</v>
       </c>
       <c r="G38" s="48" t="n">
-        <v>490123.39104</v>
+        <v>494877.90113</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>543200.87798</v>
+        <v>548514.0309299999</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>691694.76488</v>
+        <v>714263.61341</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>860748.2010000001</v>
+        <v>864601.8987500001</v>
       </c>
       <c r="K38" s="48" t="n">
-        <v>765397.6808000001</v>
+        <v>765397.6808</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>1954549.95296</v>
+        <v>1956330.7937</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>1141917.41066</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>1150438.61144</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>1031995.601</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>26559.94986</v>
@@ -2282,19 +2358,19 @@
         <v>30825.78813</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>238687.64102</v>
+        <v>238687.66465</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>78887.84251</v>
+        <v>78904.23463000001</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>86712.86370999999</v>
+        <v>86712.86371000001</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>417365.091</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>172583.56764</v>
+        <v>173643.40741</v>
       </c>
       <c r="J39" s="48" t="n">
         <v>106339.95023</v>
@@ -2303,55 +2379,65 @@
         <v>112820.89065</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>292550.10501</v>
+        <v>292560.96844</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>85979.80671999999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>86279.91368000001</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>233609.485</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>3411621.76586</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>2462266.37578</v>
+        <v>3119334.44254</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>6244781.05175</v>
+        <v>6244812.77312</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>2989372.98387</v>
+        <v>2989616.12308</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>7661146.880980001</v>
+        <v>7666922.10379</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>8486648.026149999</v>
+        <v>8527647.48982</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>15498184.84442</v>
+        <v>16249193.03727</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>21612361.71619</v>
+        <v>21649872.47453</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>17710531.70042</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>60599017.8698</v>
+        <v>60828956.77321</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>30013819.63574</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>30142676.24868</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>69467346.051</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>28527.6243</v>
@@ -2369,13 +2455,13 @@
         <v>195760.83269</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>252431.52066</v>
+        <v>257251.09739</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>278815.55209</v>
+        <v>288284.92761</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>342071.79219</v>
+        <v>342660.68812</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>252195.27841</v>
@@ -2384,13 +2470,18 @@
         <v>478860.81738</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>462046.40478</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>462494.23642</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>390691.435</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>2195.86941</v>
@@ -2411,382 +2502,432 @@
         <v>3122.23219</v>
       </c>
       <c r="I42" s="48" t="n">
-        <v>5171.473950000001</v>
+        <v>5172.564890000001</v>
       </c>
       <c r="J42" s="48" t="n">
-        <v>3100.48141</v>
+        <v>3111.28538</v>
       </c>
       <c r="K42" s="48" t="n">
         <v>3627.48213</v>
       </c>
       <c r="L42" s="48" t="n">
-        <v>154058.43855</v>
+        <v>154501.79614</v>
       </c>
       <c r="M42" s="48" t="n">
-        <v>83389.71741</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13">
+        <v>83492.21774000001</v>
+      </c>
+      <c r="N42" s="48" t="n">
+        <v>22233.083</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>1367288.53215</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>599067.76093</v>
+        <v>1809342.65122</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>2577083.38984</v>
+        <v>2577084.77769</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>2889403.1133</v>
+        <v>2889480.06821</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>3702612.648750001</v>
+        <v>3703381.26008</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>3796547.59495</v>
+        <v>3800278.31411</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>4144409.95493</v>
+        <v>4161620.78618</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>3911831.23291</v>
+        <v>3912631.19192</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>5048346.31476</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>7105208.080390001</v>
+        <v>7107552.09565</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>8201690.484139999</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>8208865.19041</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>8536729.217</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>2198457.20596</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>1772919.28666</v>
+        <v>2032292.32455</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>3558631.62727</v>
+        <v>3558632.83601</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>3566854.50831</v>
+        <v>3570857.52895</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>4118484.13362</v>
+        <v>4185078.66246</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>5032848.97633</v>
+        <v>5098710.840319999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>6304792.58475</v>
+        <v>6505891.11303</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>6985259.39193</v>
+        <v>7019513.05019</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>8711297.358040001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>16263758.14585</v>
+        <v>16273231.01266</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>15304274.69075</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>15370732.28618</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>15441601.793</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
         <v>1956887.93505</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>1535519.55819</v>
+        <v>1781548.80276</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>3005921.87389</v>
+        <v>3005923.08263</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>3202422.45523</v>
+        <v>3205456.31413</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>3733505.50234</v>
+        <v>3771119.61922</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>4668673.62061</v>
+        <v>4724602.897299999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>5806076.63009</v>
+        <v>5975656.826850001</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>6342855.19213</v>
+        <v>6372633.817530001</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>7949369.05903</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>14129116.63866</v>
+        <v>14138311.93237</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>13482958.05954</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>13542921.59311</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>13583617.061</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>241569.27091</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>237399.72847</v>
+        <v>250743.52179</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>552709.75338</v>
       </c>
       <c r="F46" s="48" t="n">
-        <v>364432.05308</v>
+        <v>365401.21482</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>384978.63128</v>
+        <v>413959.04324</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>364175.3557200001</v>
+        <v>374107.94302</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>498715.95466</v>
+        <v>530234.2861800001</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>642404.1998000001</v>
+        <v>646879.23266</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>761928.29901</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>2134641.50719</v>
+        <v>2134919.08029</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1821316.63121</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1827810.69307</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>1857984.732</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>3545939.7569</v>
+        <v>3545925.39342</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>4371966.54151</v>
+        <v>4548835.50299</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>3388294.24109</v>
+        <v>3390008.34953</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>5202993.302399999</v>
+        <v>5207954.201940001</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>5287831.20234</v>
+        <v>5220547.80154</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>5975021.497149999</v>
+        <v>5971180.53633</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>4860425.004020001</v>
+        <v>4733679.77033</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>8441290.156489998</v>
+        <v>8531448.469000001</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>14427386.54575</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>10157896.71209</v>
+        <v>10138715.74457</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>10853331.54054</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>11026216.75757</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>16409158.777</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>502554.527</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>553301.31031</v>
+        <v>613838.0377400001</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1030703.40403</v>
+        <v>1030910.83213</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>903843.0169800001</v>
+        <v>906520.0499</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>1239816.14265</v>
+        <v>1249490.01931</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>1256940.52357</v>
+        <v>1293891.87799</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>1704328.96944</v>
+        <v>1721234.94552</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>2237861.56142</v>
+        <v>2247646.57102</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>1902524.71557</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>2954959.97862</v>
+        <v>2972782.51653</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>2781690.27901</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>2818387.74341</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>4519116.305</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>23246.41876</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>13130.84032</v>
+        <v>13332.05341</v>
       </c>
       <c r="E49" s="48" t="n">
         <v>18525.22909</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>42407.92879999999</v>
+        <v>42653.84776999999</v>
       </c>
       <c r="G49" s="48" t="n">
-        <v>23370.45485</v>
+        <v>23466.85638</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>39483.26029000001</v>
+        <v>39672.72013</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>24243.99625</v>
+        <v>24322.90253</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>77508.16191</v>
+        <v>78187.57156</v>
       </c>
       <c r="K49" s="48" t="n">
         <v>36804.73909</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>36405.41688</v>
+        <v>36416.94415</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>66176.57646000001</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>66425.85182</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>48061.723</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
         <v>479308.10824</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>540170.46999</v>
+        <v>600505.9843299999</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1012178.17494</v>
+        <v>1012385.60304</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>861435.0881800001</v>
+        <v>863866.20213</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>1216445.6878</v>
+        <v>1226023.16293</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>1217457.26328</v>
+        <v>1254219.15786</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>1680084.97319</v>
+        <v>1696912.04299</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>2160353.39951</v>
+        <v>2169458.99946</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>1865719.97648</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>2918554.56174</v>
+        <v>2936365.57238</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>2715513.70255</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>2751961.89159</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>4471054.582</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>431517.79985</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>469641.42688</v>
+        <v>526079.45952</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>2141292.3588</v>
+        <v>2141592.58637</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>707478.7806400001</v>
+        <v>709178.07101</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>954478.05339</v>
+        <v>963609.7514300001</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>1402892.69371</v>
+        <v>1410163.47337</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>1143865.42735</v>
+        <v>1157655.97776</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>2194231.67728</v>
+        <v>2202964.49808</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>1205736.91927</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>3909545.92657</v>
+        <v>3953511.21352</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>2748943.72164</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>2792062.55945</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>4180113.563</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>29627.76622</v>
       </c>
       <c r="D52" s="48" t="n">
-        <v>16259.91857</v>
+        <v>16420.13511</v>
       </c>
       <c r="E52" s="48" t="n">
         <v>27000.9559</v>
@@ -2795,223 +2936,251 @@
         <v>26383.26184</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>22128.58995</v>
+        <v>22137.60332</v>
       </c>
       <c r="H52" s="48" t="n">
         <v>24163.44352</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>32735.05442</v>
+        <v>35776.60163</v>
       </c>
       <c r="J52" s="48" t="n">
-        <v>40396.6332</v>
+        <v>41601.1806</v>
       </c>
       <c r="K52" s="48" t="n">
         <v>48028.84913</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>56675.83236</v>
+        <v>57423.45014999999</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>95478.20391999999</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>96712.70437000001</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>40494.161</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>49327.3498</v>
       </c>
       <c r="D53" s="48" t="n">
-        <v>46619.69777</v>
+        <v>51576.07839</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>54878.55629</v>
+        <v>54878.55629000001</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>68284.03705000001</v>
+        <v>68568.68611999998</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>62892.66285999999</v>
+        <v>62922.22118</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>105336.45668</v>
+        <v>105470.15155</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>168428.06337</v>
+        <v>169027.51672</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>175171.31642</v>
+        <v>175899.34517</v>
       </c>
       <c r="K53" s="48" t="n">
         <v>108075.01096</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>176360.87297</v>
+        <v>177054.51017</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>144953.23972</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>153915.59798</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>98398.742</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>352562.68383</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>406761.81054</v>
+        <v>458083.24602</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>2059412.84661</v>
+        <v>2059713.07418</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>612811.48175</v>
+        <v>614226.1230499999</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>869456.80058</v>
+        <v>878549.92693</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>1273392.79351</v>
+        <v>1280529.8783</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>942702.3095600001</v>
+        <v>952851.8594099999</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>1978663.72766</v>
+        <v>1985463.97231</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>1049633.05918</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>3676509.22124</v>
+        <v>3719033.2532</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>2508512.278</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>2541434.2571</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>4041220.66</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>3616976.48405</v>
+        <v>3616962.12057</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>4455626.424939999</v>
+        <v>4636594.08121</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>2277705.28632</v>
+        <v>2279326.59529</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>5399357.53874</v>
+        <v>5405296.18083</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>5573169.2916</v>
+        <v>5506428.069420001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>5829069.32701</v>
+        <v>5854908.94095</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>5420888.54611</v>
+        <v>5297258.73809</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>8484920.04063</v>
+        <v>8576130.54194</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>15124174.34205</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>9203310.764139999</v>
+        <v>9157987.04758</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>10886078.09791</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>11052541.94153</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>16748161.519</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
         <v>686470.26659</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>727200.16609</v>
+        <v>766577.6702700001</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>785181.33727</v>
+        <v>785512.2170999999</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>963077.86076</v>
+        <v>964986.46349</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>1083819.24843</v>
+        <v>1086467.43005</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>1205412.44718</v>
+        <v>1208247.65155</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>1337281.41439</v>
+        <v>1351223.45229</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>1742367.44066</v>
+        <v>1761610.94527</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>2474881.74455</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>3112291.2815</v>
+        <v>3125517.8858</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>2904757.687309999</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>2939170.3118</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>4611195.449</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>2930506.21746</v>
+        <v>2930491.85398</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>3728426.25885</v>
+        <v>3870016.410939999</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>1492523.94905</v>
+        <v>1493814.37819</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>4436279.67798</v>
+        <v>4440309.71734</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>4489350.04317</v>
+        <v>4419960.63937</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>4623656.87983</v>
+        <v>4646661.289399999</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>4083607.13172</v>
+        <v>3946035.2858</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>6742552.59997</v>
+        <v>6814519.59667</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>12649292.5975</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>6091019.48264</v>
+        <v>6032469.16178</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>7981320.4106</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>8113371.629729999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>12136966.07</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>26486</v>
+        <v>26487</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>27663</v>
+        <v>27666</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>29153</v>
+        <v>29159</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>29752</v>
+        <v>29790</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>31184</v>
+        <v>31249</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>32450</v>
+        <v>32568</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>33423</v>
+        <v>33798</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>34232</v>
+        <v>34450</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>36082</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>34246</v>
+        <v>38193</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>34539</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>39860</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>41976</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>